--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.21</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009687</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合C</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.09</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.09</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.87</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>009687</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>华夏磐利一年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>88.28</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.66</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.91</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001301</t>
+          <t>920003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成睿景灵活配置混合C</t>
+          <t>中金新锐股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>009686</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>华夏磐利一年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4735</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>001301</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>大成睿景灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>920923</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>中金新锐股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009686</t>
+          <t>009687</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合A</t>
+          <t>华夏磐利一年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.75</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009687</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合C</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3424</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6853</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2094,4 +2095,3858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9867</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5503</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3813</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3552</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003218</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0660</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8348</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003219</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5949,4 +5950,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5958,7 +5959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5969,17 +5970,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5989,14 +6010,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.45</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6005,14 +6048,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.38</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.1545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6021,14 +6086,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.16</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6037,13 +6124,1861 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4570</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1660</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8874</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8061</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5910</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3041</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2731</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7877,7 +7878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7888,17 +7889,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7908,14 +7929,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.58</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7924,14 +7967,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.45</v>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9374</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7940,14 +8005,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.38</v>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8391</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7956,14 +8043,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.16</v>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7972,13 +8081,1573 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.890000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9530,7 +9531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9541,17 +9542,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9561,14 +9582,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.890000000000001</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -9577,14 +9620,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.58</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -9593,14 +9658,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.45</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9609,14 +9696,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.38</v>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9625,14 +9734,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.16</v>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2567</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -9641,13 +9772,2577 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1305</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8937</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7787</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7734</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5900</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3508</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2664</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013774</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013775</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达趋势优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.890000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>27.58</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>8.890000000000001</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>34.58</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>44.45</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>10.38</v>
+        <v>44.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>3.16</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,6 +617,2304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015507</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015508</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3277,7 +5592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4929,7 +7244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6847,7 +9162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10701,7 +13016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11593,7 +13908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12029,7 +14344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600141-兴发集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>4.66</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>27.58</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>8.890000000000001</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>34.58</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>44.45</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>10.38</v>
+        <v>44.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>3.16</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -616,7 +633,1637 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013936</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿升混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516810</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证农牧主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013937</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿升混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2914,7 +4561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5592,7 +7239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7244,7 +8891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9162,7 +10809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13016,7 +14663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13908,7 +15555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14342,326 +15989,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009686</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3788</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3722</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009687</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>